--- a/storage/data/cost_generals.xlsx
+++ b/storage/data/cost_generals.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="cost_generals(1)" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_generals (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>Nouveau minerval 6ème secondaire technique</t>
-  </si>
-  <si>
-    <t>classe_option_id</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -951,19 +945,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F36"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="5" max="6" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,11 +973,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -999,11 +990,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1019,11 +1007,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1039,11 +1024,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1059,11 +1041,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1079,11 +1058,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1099,11 +1075,8 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1119,11 +1092,8 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1139,11 +1109,8 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1159,11 +1126,8 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1179,11 +1143,8 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1199,11 +1160,8 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19</v>
       </c>
@@ -1219,11 +1177,8 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1239,11 +1194,8 @@
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1259,11 +1211,8 @@
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1279,11 +1228,8 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1299,11 +1245,8 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1311,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>32.5</v>
+        <v>3.25</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1319,11 +1262,8 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1339,11 +1279,8 @@
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26</v>
       </c>
@@ -1359,11 +1296,8 @@
       <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>27</v>
       </c>
@@ -1379,11 +1313,8 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28</v>
       </c>
@@ -1399,11 +1330,8 @@
       <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -1419,11 +1347,8 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -1439,11 +1364,8 @@
       <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31</v>
       </c>
@@ -1459,11 +1381,8 @@
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>32</v>
       </c>
@@ -1479,11 +1398,8 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33</v>
       </c>
@@ -1499,11 +1415,8 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>34</v>
       </c>
@@ -1519,11 +1432,8 @@
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>35</v>
       </c>
@@ -1539,11 +1449,8 @@
       <c r="E29">
         <v>7</v>
       </c>
-      <c r="F29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>36</v>
       </c>
@@ -1559,11 +1466,8 @@
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>37</v>
       </c>
@@ -1579,11 +1483,8 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>38</v>
       </c>
@@ -1599,11 +1500,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1619,11 +1517,8 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>40</v>
       </c>
@@ -1639,11 +1534,8 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -1659,11 +1551,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>42</v>
       </c>
@@ -1678,9 +1567,6 @@
       </c>
       <c r="E36">
         <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
